--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H2">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I2">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J2">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N2">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O2">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P2">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q2">
-        <v>1.087240427967</v>
+        <v>15.675671591444</v>
       </c>
       <c r="R2">
-        <v>4.348961711867999</v>
+        <v>62.702686365776</v>
       </c>
       <c r="S2">
-        <v>5.45672863715526E-05</v>
+        <v>0.001241467777699909</v>
       </c>
       <c r="T2">
-        <v>3.371195799034963E-05</v>
+        <v>0.0007366725056705973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H3">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I3">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J3">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P3">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q3">
-        <v>57.87989324374849</v>
+        <v>66.68475621297033</v>
       </c>
       <c r="R3">
-        <v>347.279359462491</v>
+        <v>400.108537277822</v>
       </c>
       <c r="S3">
-        <v>0.002904922065574974</v>
+        <v>0.005281239506660929</v>
       </c>
       <c r="T3">
-        <v>0.002692014313477674</v>
+        <v>0.004700738928109606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H4">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I4">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J4">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N4">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O4">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P4">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q4">
-        <v>4.6522108144845</v>
+        <v>4.732741280932333</v>
       </c>
       <c r="R4">
-        <v>27.913264886907</v>
+        <v>28.396447685594</v>
       </c>
       <c r="S4">
-        <v>0.0002334888523686453</v>
+        <v>0.000374819398721943</v>
       </c>
       <c r="T4">
-        <v>0.0002163759709985397</v>
+        <v>0.0003336201920705647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H5">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I5">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J5">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N5">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O5">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P5">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q5">
-        <v>251.8422543090142</v>
+        <v>167.145977297159</v>
       </c>
       <c r="R5">
-        <v>1007.369017236057</v>
+        <v>668.583909188636</v>
       </c>
       <c r="S5">
-        <v>0.01263965913871855</v>
+        <v>0.013237477180872</v>
       </c>
       <c r="T5">
-        <v>0.007808848235468786</v>
+        <v>0.007854964630380873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H6">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I6">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J6">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N6">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O6">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P6">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q6">
-        <v>10.317348589235</v>
+        <v>3.145377564470666</v>
       </c>
       <c r="R6">
-        <v>61.90409153541</v>
+        <v>18.872265386824</v>
       </c>
       <c r="S6">
-        <v>0.0005178152877525342</v>
+        <v>0.0002491047909629524</v>
       </c>
       <c r="T6">
-        <v>0.0004798635333066925</v>
+        <v>0.000221723818164518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H7">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I7">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J7">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N7">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O7">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P7">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q7">
-        <v>11.5446992975835</v>
+        <v>6.670022054656332</v>
       </c>
       <c r="R7">
-        <v>69.26819578550099</v>
+        <v>40.020132327938</v>
       </c>
       <c r="S7">
-        <v>0.0005794145401883654</v>
+        <v>0.0005282464237081398</v>
       </c>
       <c r="T7">
-        <v>0.0005369480490057256</v>
+        <v>0.0004701829039239138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I8">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J8">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N8">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O8">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P8">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q8">
-        <v>55.14817844965066</v>
+        <v>690.1331506807306</v>
       </c>
       <c r="R8">
-        <v>330.8890706979039</v>
+        <v>4140.798904084384</v>
       </c>
       <c r="S8">
-        <v>0.002767820593241325</v>
+        <v>0.0546565462216167</v>
       </c>
       <c r="T8">
-        <v>0.002564961291885511</v>
+        <v>0.04864883597419302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I9">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J9">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P9">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q9">
         <v>2935.846202133549</v>
@@ -1013,10 +1013,10 @@
         <v>26422.61581920195</v>
       </c>
       <c r="S9">
-        <v>0.1473465816150822</v>
+        <v>0.232510514077165</v>
       </c>
       <c r="T9">
-        <v>0.204820868406652</v>
+        <v>0.3104303137564968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>3127.850708</v>
       </c>
       <c r="I10">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J10">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N10">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O10">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P10">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q10">
-        <v>235.974440963644</v>
+        <v>208.3624699913551</v>
       </c>
       <c r="R10">
-        <v>2123.769968672796</v>
+        <v>1875.262229922196</v>
       </c>
       <c r="S10">
-        <v>0.01184327271614391</v>
+        <v>0.01650170399827846</v>
       </c>
       <c r="T10">
-        <v>0.01646288211038556</v>
+        <v>0.02203181722785377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I11">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J11">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N11">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O11">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P11">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q11">
-        <v>12774.21371072983</v>
+        <v>7358.72649939027</v>
       </c>
       <c r="R11">
-        <v>76645.282264379</v>
+        <v>44152.35899634162</v>
       </c>
       <c r="S11">
-        <v>0.6411223863595749</v>
+        <v>0.5827898205577243</v>
       </c>
       <c r="T11">
-        <v>0.5941331993804547</v>
+        <v>0.5187310276207842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3127.850708</v>
       </c>
       <c r="I12">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J12">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N12">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O12">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P12">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q12">
-        <v>523.3276527348312</v>
+        <v>138.4775967004462</v>
       </c>
       <c r="R12">
-        <v>4709.94887461348</v>
+        <v>1246.298370304016</v>
       </c>
       <c r="S12">
-        <v>0.02626518400013057</v>
+        <v>0.01096702448976802</v>
       </c>
       <c r="T12">
-        <v>0.03651023143394451</v>
+        <v>0.01464233506534674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I13">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J13">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N13">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O13">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P13">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q13">
-        <v>585.5826555320252</v>
+        <v>293.652703097099</v>
       </c>
       <c r="R13">
-        <v>5270.243899788227</v>
+        <v>2642.874327873892</v>
       </c>
       <c r="S13">
-        <v>0.02938968753983836</v>
+        <v>0.02325644337487326</v>
       </c>
       <c r="T13">
-        <v>0.04085348474411903</v>
+        <v>0.03105023031915931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H14">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I14">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J14">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N14">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O14">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P14">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q14">
-        <v>0.04329321006</v>
+        <v>0.085703271824</v>
       </c>
       <c r="R14">
-        <v>0.25975926036</v>
+        <v>0.514219630944</v>
       </c>
       <c r="S14">
-        <v>2.172834021362849E-06</v>
+        <v>6.787450846509563E-06</v>
       </c>
       <c r="T14">
-        <v>2.013582517630223E-06</v>
+        <v>6.041391301526227E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H15">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I15">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J15">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P15">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q15">
-        <v>2.30473988273</v>
+        <v>0.3645841745853333</v>
       </c>
       <c r="R15">
-        <v>20.74265894457</v>
+        <v>3.281257571268</v>
       </c>
       <c r="S15">
-        <v>0.0001156721162659743</v>
+        <v>2.887401042862211E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001607914010921783</v>
+        <v>3.855037761342174E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H16">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I16">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J16">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N16">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O16">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P16">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q16">
-        <v>0.18524802321</v>
+        <v>0.02587521753733334</v>
       </c>
       <c r="R16">
-        <v>1.66723220889</v>
+        <v>0.232876957836</v>
       </c>
       <c r="S16">
-        <v>9.297374961640873E-06</v>
+        <v>2.049242268580584E-06</v>
       </c>
       <c r="T16">
-        <v>1.292392665423481E-05</v>
+        <v>2.735992060072704E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H17">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I17">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J17">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N17">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O17">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P17">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q17">
-        <v>10.028195546565</v>
+        <v>0.9138337099639999</v>
       </c>
       <c r="R17">
-        <v>60.16917327939</v>
+        <v>5.483002259784</v>
       </c>
       <c r="S17">
-        <v>0.0005033030451254981</v>
+        <v>7.237298245744655E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004664149229857441</v>
+        <v>6.441792604785854E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H18">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I18">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J18">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N18">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O18">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P18">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q18">
-        <v>0.4108301423</v>
+        <v>0.01719665705066667</v>
       </c>
       <c r="R18">
-        <v>3.6974712807</v>
+        <v>0.154769913456</v>
       </c>
       <c r="S18">
-        <v>2.06190695712708E-05</v>
+        <v>1.361925419783051E-06</v>
       </c>
       <c r="T18">
-        <v>2.866178291368366E-05</v>
+        <v>1.818338998794218E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H19">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I19">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J19">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N19">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O19">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P19">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q19">
-        <v>0.45970245303</v>
+        <v>0.03646687224133333</v>
       </c>
       <c r="R19">
-        <v>4.137322077269999</v>
+        <v>0.328201850172</v>
       </c>
       <c r="S19">
-        <v>2.307191192945098E-05</v>
+        <v>2.888070637166507E-06</v>
       </c>
       <c r="T19">
-        <v>3.207138560931661E-05</v>
+        <v>3.855931752613052E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H20">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I20">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J20">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N20">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O20">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P20">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q20">
-        <v>6.790661098723999</v>
+        <v>43.43110403931999</v>
       </c>
       <c r="R20">
-        <v>27.162644394896</v>
+        <v>173.72441615728</v>
       </c>
       <c r="S20">
-        <v>0.0003408150941545759</v>
+        <v>0.003439617620222249</v>
       </c>
       <c r="T20">
-        <v>0.0002105573668879735</v>
+        <v>0.002041028995156373</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H21">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I21">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J21">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P21">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q21">
-        <v>361.5048974802752</v>
+        <v>184.7571613137766</v>
       </c>
       <c r="R21">
-        <v>2169.029384881652</v>
+        <v>1108.54296788266</v>
       </c>
       <c r="S21">
-        <v>0.01814349499715594</v>
+        <v>0.01463223193547581</v>
       </c>
       <c r="T21">
-        <v>0.01681372068726632</v>
+        <v>0.01302389376158163</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H22">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I22">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J22">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N22">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O22">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P22">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q22">
-        <v>29.056670620734</v>
+        <v>13.11255966063667</v>
       </c>
       <c r="R22">
-        <v>174.340023724404</v>
+        <v>78.67535796381999</v>
       </c>
       <c r="S22">
-        <v>0.001458319269575207</v>
+        <v>0.001038476738102454</v>
       </c>
       <c r="T22">
-        <v>0.001351436031224378</v>
+        <v>0.0009243299840080331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H23">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I23">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J23">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N23">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O23">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P23">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q23">
-        <v>1572.950522589551</v>
+        <v>463.0955865207699</v>
       </c>
       <c r="R23">
-        <v>6291.802090358204</v>
+        <v>1852.38234608308</v>
       </c>
       <c r="S23">
-        <v>0.07894449047937033</v>
+        <v>0.03667582886683939</v>
       </c>
       <c r="T23">
-        <v>0.04877232355826905</v>
+        <v>0.02176300926548211</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H24">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I24">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J24">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N24">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O24">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P24">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q24">
-        <v>64.43985700375333</v>
+        <v>8.714600803453331</v>
       </c>
       <c r="R24">
-        <v>386.63914202252</v>
+        <v>52.28760482071999</v>
       </c>
       <c r="S24">
-        <v>0.003234158738413317</v>
+        <v>0.0006901711374784191</v>
       </c>
       <c r="T24">
-        <v>0.002997120548961881</v>
+        <v>0.0006143092599588829</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H25">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I25">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J25">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N25">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O25">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P25">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q25">
-        <v>72.10561564856198</v>
+        <v>18.48000068835666</v>
       </c>
       <c r="R25">
-        <v>432.6336938913719</v>
+        <v>110.88000413014</v>
       </c>
       <c r="S25">
-        <v>0.003618893923443776</v>
+        <v>0.001463562518047978</v>
       </c>
       <c r="T25">
-        <v>0.003353657695783916</v>
+        <v>0.001302691402961958</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H26">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I26">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J26">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N26">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O26">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P26">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q26">
-        <v>1.081346793358</v>
+        <v>0.1061192143973333</v>
       </c>
       <c r="R26">
-        <v>6.488080760148</v>
+        <v>0.636715286384</v>
       </c>
       <c r="S26">
-        <v>5.427149195551902E-05</v>
+        <v>8.404334353433703E-06</v>
       </c>
       <c r="T26">
-        <v>5.029382195460999E-05</v>
+        <v>7.48055103545432E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H27">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I27">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J27">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P27">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q27">
-        <v>57.56614208695566</v>
+        <v>0.4514341794108889</v>
       </c>
       <c r="R27">
-        <v>518.095278782601</v>
+        <v>4.062907614698</v>
       </c>
       <c r="S27">
-        <v>0.00288917527325404</v>
+        <v>3.575227920677508E-05</v>
       </c>
       <c r="T27">
-        <v>0.004016132454248578</v>
+        <v>4.77337177448487E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H28">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I28">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J28">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N28">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O28">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P28">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q28">
-        <v>4.626992445152999</v>
+        <v>0.03203912404955556</v>
       </c>
       <c r="R28">
-        <v>41.642932006377</v>
+        <v>0.288352116446</v>
       </c>
       <c r="S28">
-        <v>0.0002322231728135642</v>
+        <v>2.537405807542146E-06</v>
       </c>
       <c r="T28">
-        <v>0.000322804583577483</v>
+        <v>3.387750803825799E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H29">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I29">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J29">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N29">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O29">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P29">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q29">
-        <v>250.4770859545045</v>
+        <v>1.131524075187333</v>
       </c>
       <c r="R29">
-        <v>1502.862515727027</v>
+        <v>6.789144451123999</v>
       </c>
       <c r="S29">
-        <v>0.0125711429847661</v>
+        <v>8.961342873523171E-05</v>
       </c>
       <c r="T29">
-        <v>0.01164977789001939</v>
+        <v>7.976334578384139E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H30">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I30">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J30">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N30">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O30">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P30">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q30">
-        <v>10.26142104905667</v>
+        <v>0.02129318633511111</v>
       </c>
       <c r="R30">
-        <v>92.35278944151</v>
+        <v>0.191638677016</v>
       </c>
       <c r="S30">
-        <v>0.0005150083519336793</v>
+        <v>1.686358671486135E-06</v>
       </c>
       <c r="T30">
-        <v>0.0007158934854375854</v>
+        <v>2.251497544415103E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H31">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I31">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J31">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N31">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O31">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P31">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q31">
-        <v>11.482118623079</v>
+        <v>0.04515388679355555</v>
       </c>
       <c r="R31">
-        <v>103.339067607711</v>
+        <v>0.4063849811419999</v>
       </c>
       <c r="S31">
-        <v>0.0005762736915782772</v>
+        <v>3.576057023464655E-06</v>
       </c>
       <c r="T31">
-        <v>0.0008010560995389129</v>
+        <v>4.774478729322469E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H32">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I32">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J32">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N32">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O32">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P32">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q32">
-        <v>0.06953744972666667</v>
+        <v>0.1572636548226667</v>
       </c>
       <c r="R32">
-        <v>0.41722469836</v>
+        <v>0.9435819289359999</v>
       </c>
       <c r="S32">
-        <v>3.490000771841822E-06</v>
+        <v>1.245482586993115E-05</v>
       </c>
       <c r="T32">
-        <v>3.234211390103756E-06</v>
+        <v>1.10858227004797E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H33">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I33">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J33">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.447531</v>
       </c>
       <c r="O33">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P33">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q33">
-        <v>3.701867648674444</v>
+        <v>0.669004094774111</v>
       </c>
       <c r="R33">
-        <v>33.31680883807</v>
+        <v>6.021036852967</v>
       </c>
       <c r="S33">
-        <v>0.0001857922745500921</v>
+        <v>5.298318620458207E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002582627611681342</v>
+        <v>7.073911122939036E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H34">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I34">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J34">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N34">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O34">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P34">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q34">
-        <v>0.29754492871</v>
+        <v>0.04748046594544444</v>
       </c>
       <c r="R34">
-        <v>2.67790435839</v>
+        <v>0.427324193509</v>
       </c>
       <c r="S34">
-        <v>1.493342127065807E-05</v>
+        <v>3.760315352206049E-06</v>
       </c>
       <c r="T34">
-        <v>2.075837986475195E-05</v>
+        <v>5.020486403558035E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H35">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I35">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J35">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N35">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O35">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P35">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q35">
-        <v>16.10726353398167</v>
+        <v>1.676865142607667</v>
       </c>
       <c r="R35">
-        <v>96.64358120389001</v>
+        <v>10.061190855646</v>
       </c>
       <c r="S35">
-        <v>0.0008084041388750875</v>
+        <v>0.0001328028614245683</v>
       </c>
       <c r="T35">
-        <v>0.0007491545259392643</v>
+        <v>0.000118205504536474</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H36">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I36">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J36">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N36">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O36">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P36">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q36">
-        <v>0.6598743850777778</v>
+        <v>0.03155549468488889</v>
       </c>
       <c r="R36">
-        <v>5.938869465700001</v>
+        <v>0.283999452164</v>
       </c>
       <c r="S36">
-        <v>3.311829988434186E-05</v>
+        <v>2.499103762932404E-06</v>
       </c>
       <c r="T36">
-        <v>4.603648668404864E-05</v>
+        <v>3.336612833687506E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H37">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I37">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J37">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N37">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O37">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P37">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q37">
-        <v>0.7383729728633333</v>
+        <v>0.06691592382144444</v>
       </c>
       <c r="R37">
-        <v>6.64535675577</v>
+        <v>0.6022433143929999</v>
       </c>
       <c r="S37">
-        <v>3.705804937237955E-05</v>
+        <v>5.29954731156067E-06</v>
       </c>
       <c r="T37">
-        <v>5.15129823217455E-05</v>
+        <v>7.075551577634003E-06</v>
       </c>
     </row>
   </sheetData>
